--- a/parts.xlsx
+++ b/parts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steve/Documents/GitHub/gaia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1EB5F86-8321-F04F-BBC4-D692D582C93A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173BAF48-7F5C-DC44-90F0-64E73DCC8EAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22820" yWindow="6700" windowWidth="27640" windowHeight="16940" xr2:uid="{047177B0-8A4F-7144-801A-BFB7E4AE56A5}"/>
+    <workbookView xWindow="5520" yWindow="2180" windowWidth="27640" windowHeight="16940" xr2:uid="{047177B0-8A4F-7144-801A-BFB7E4AE56A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Parts" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Unit Price</t>
   </si>
@@ -48,15 +48,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Consumables are not included e.g. heatshrink or solder</t>
-  </si>
-  <si>
-    <t>Raspberry Pi Zero W</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/raspberry-pi-zero-w-wireless.html</t>
-  </si>
-  <si>
     <t>5V Single Channel Relay Module 10A</t>
   </si>
   <si>
@@ -75,30 +66,12 @@
     <t>Adafruit VEML7700</t>
   </si>
   <si>
-    <t>https://core-electronics.com.au/adafruit-perma-proto-bonnet-mini-kit.html</t>
-  </si>
-  <si>
-    <t>Adafruit Perma Proto Bonnet Mini</t>
-  </si>
-  <si>
     <t>https://core-electronics.com.au/cooling-fan-for-raspberry-pi.html</t>
   </si>
   <si>
     <t>Cooling Fan for Raspberry Pi</t>
   </si>
   <si>
-    <t>https://core-electronics.com.au/mg-chemicals-419c-acrylic-conformal-coating-ii-340g.html</t>
-  </si>
-  <si>
-    <t>Acrylic Conformal Coating</t>
-  </si>
-  <si>
-    <t>https://core-electronics.com.au/gpio-header-for-raspberry-pi-b-extra-long-2x20-female-header.html</t>
-  </si>
-  <si>
-    <t>GPIO Stacking Header</t>
-  </si>
-  <si>
     <t>https://core-electronics.com.au/5v-2a-switching-power-supply-w-20awg-6-microusb-cable.html</t>
   </si>
   <si>
@@ -109,6 +82,39 @@
   </si>
   <si>
     <t>IP67 Clear Cover Enclosure</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com.au/itm/AU-ESP-WROOM-32-ESP32-ESP32S-2-4GHz-WiFi-Bluetooth-Development-Board-for-Arduino/303428770355</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/ic-experimenters-board-140-x-95mm/p/HP9558</t>
+  </si>
+  <si>
+    <t>IC Experimenters Board</t>
+  </si>
+  <si>
+    <t>Consumables are not included e.g. heatshrink, solder or small wires</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/40-pin-header-terminal-strip/p/HM3212</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/40-pin-female-header-strip/p/HM3230</t>
+  </si>
+  <si>
+    <t>Female Header Strip</t>
+  </si>
+  <si>
+    <t>Male Header Strip</t>
+  </si>
+  <si>
+    <t>https://www.jaycar.com.au/150mm-socket-to-socket-jumper-leads-40-piece/p/WC6026</t>
+  </si>
+  <si>
+    <t>Socker to Socker Leads</t>
   </si>
 </sst>
 </file>
@@ -484,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E95B24-F0D8-B942-A60E-4AC2DFC26562}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -514,20 +520,20 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>17.95</v>
+        <v>14.99</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <f t="shared" ref="C2:C11" si="0">A2*B2</f>
-        <v>17.95</v>
+        <f t="shared" ref="C2:C4" si="0">A2*B2</f>
+        <v>14.99</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -542,10 +548,10 @@
         <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -560,153 +566,170 @@
         <v>10.17</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>9.23</v>
+        <v>3.95</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="0"/>
-        <v>9.23</v>
+        <f>A5*B5</f>
+        <v>3.95</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="0"/>
-        <v>3.95</v>
+        <f>A6*B6</f>
+        <v>3.99</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>5.13</v>
+        <v>6.95</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="0"/>
-        <v>5.13</v>
+        <f>A7*B7</f>
+        <v>6.95</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>3.99</v>
+        <v>0.95</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="0"/>
-        <v>3.99</v>
+        <f>A8*B8</f>
+        <v>0.95</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>29.5</v>
+        <v>1.8</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
+        <f>A9*B9</f>
+        <v>1.8</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>14.25</v>
+        <v>5.95</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="0"/>
-        <v>14.25</v>
+        <f>A10*B10</f>
+        <v>5.95</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
+        <v>14.25</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <f>A11*B11</f>
+        <v>14.25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
         <v>24.85</v>
       </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <f>A12*B12</f>
         <v>24.85</v>
       </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" s="2">
-        <f>SUM(C2:C11)</f>
-        <v>155.02000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="C15" t="s">
-        <v>5</v>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" s="2">
+        <f>SUM(C2:C12)</f>
+        <v>123.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="C16" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{BF42CD7F-96F2-3D40-9D84-E753F978B9E6}"/>
-    <hyperlink ref="E11" r:id="rId2" xr:uid="{56F95322-0AA2-A849-B69D-F890C6CF71E1}"/>
+    <hyperlink ref="E12" r:id="rId1" xr:uid="{56F95322-0AA2-A849-B69D-F890C6CF71E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
